--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_ER_inputData.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_ER_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1995" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13965" uniqueCount="54">
   <si>
     <t>TagNumber</t>
   </si>
@@ -235,7 +235,7 @@
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.5703125" customWidth="true"/>
     <col min="9" max="9" width="13" customWidth="true"/>
-    <col min="10" max="10" width="7.5703125" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="20.42578125" customWidth="true"/>
     <col min="12" max="12" width="13.42578125" customWidth="true"/>
     <col min="13" max="13" width="14.85546875" customWidth="true"/>
@@ -448,7 +448,7 @@
         <v>34</v>
       </c>
       <c r="J3" s="0">
-        <v>263</v>
+        <v>262.5</v>
       </c>
       <c r="K3" s="0">
         <v>11</v>
@@ -531,7 +531,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="0">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K4" s="0">
         <v>7</v>
@@ -614,7 +614,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="0">
-        <v>263</v>
+        <v>261.5</v>
       </c>
       <c r="K5" s="0">
         <v>5</v>
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="0">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K6" s="0">
         <v>10</v>
@@ -780,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="0">
-        <v>263</v>
+        <v>260.5</v>
       </c>
       <c r="K7" s="0">
         <v>6</v>
@@ -946,7 +946,7 @@
         <v>28</v>
       </c>
       <c r="J9" s="0">
-        <v>260</v>
+        <v>259.19999999999999</v>
       </c>
       <c r="K9" s="0">
         <v>11</v>
@@ -1029,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="0">
-        <v>260</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="K10" s="0">
         <v>3</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>260</v>
+        <v>257.60000000000002</v>
       </c>
       <c r="K11" s="0">
         <v>3</v>
@@ -1195,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="0">
-        <v>260</v>
+        <v>256.80000000000001</v>
       </c>
       <c r="K12" s="0">
         <v>5</v>
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="0">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K14" s="0">
         <v>4</v>
@@ -1444,7 +1444,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K15" s="0">
         <v>6</v>
@@ -1527,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="0">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K16" s="0">
         <v>3</v>
@@ -1610,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K17" s="0">
         <v>4</v>
@@ -1774,7 +1774,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="0">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>248</v>
+        <v>235.16666666666666</v>
       </c>
       <c r="K20" s="0">
         <v>16</v>
@@ -1887,7 +1887,7 @@
         <v>0.019310000000000001</v>
       </c>
       <c r="T20" s="0">
-        <v>5.4504032258064523</v>
+        <v>5.7519148936170224</v>
       </c>
       <c r="U20" s="0">
         <v>21.627200000000002</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>235</v>
+        <v>235.33333333333334</v>
       </c>
       <c r="K21" s="0">
         <v>14</v>
@@ -2023,7 +2023,7 @@
         <v>22</v>
       </c>
       <c r="J22" s="0">
-        <v>235</v>
+        <v>235.5</v>
       </c>
       <c r="K22" s="0">
         <v>21</v>
@@ -2106,7 +2106,7 @@
         <v>11</v>
       </c>
       <c r="J23" s="0">
-        <v>235</v>
+        <v>235.66666666666666</v>
       </c>
       <c r="K23" s="0">
         <v>16</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>235</v>
+        <v>235.83333333333334</v>
       </c>
       <c r="K24" s="0">
         <v>13</v>
@@ -2355,7 +2355,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="0">
-        <v>236</v>
+        <v>237.19999999999999</v>
       </c>
       <c r="K26" s="0">
         <v>15</v>
@@ -2438,7 +2438,7 @@
         <v>13</v>
       </c>
       <c r="J27" s="0">
-        <v>236</v>
+        <v>238.40000000000001</v>
       </c>
       <c r="K27" s="0">
         <v>14</v>
@@ -2521,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="0">
-        <v>236</v>
+        <v>239.59999999999999</v>
       </c>
       <c r="K28" s="0">
         <v>3</v>
@@ -2604,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="0">
-        <v>236</v>
+        <v>240.80000000000001</v>
       </c>
       <c r="K29" s="0">
         <v>9</v>
@@ -2770,7 +2770,7 @@
         <v>12</v>
       </c>
       <c r="J31" s="0">
-        <v>242</v>
+        <v>243.40000000000001</v>
       </c>
       <c r="K31" s="0">
         <v>10</v>
@@ -2853,7 +2853,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="0">
-        <v>242</v>
+        <v>244.80000000000001</v>
       </c>
       <c r="K32" s="0">
         <v>9</v>
@@ -2936,7 +2936,7 @@
         <v>13</v>
       </c>
       <c r="J33" s="0">
-        <v>242</v>
+        <v>246.19999999999999</v>
       </c>
       <c r="K33" s="0">
         <v>11</v>
@@ -3019,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="J34" s="0">
-        <v>242</v>
+        <v>247.59999999999999</v>
       </c>
       <c r="K34" s="0">
         <v>8</v>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="0">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K36" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>4</v>
       </c>
       <c r="J37" s="0">
-        <v>238</v>
+        <v>242.5</v>
       </c>
       <c r="K37" s="0">
         <v>21</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K38" s="0">
         <v>19</v>
@@ -3432,7 +3432,7 @@
         <v>6</v>
       </c>
       <c r="J39" s="0">
-        <v>238</v>
+        <v>251.5</v>
       </c>
       <c r="K39" s="0">
         <v>48</v>
@@ -3515,7 +3515,7 @@
         <v>4</v>
       </c>
       <c r="J40" s="0">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="K40" s="0">
         <v>97</v>
@@ -3598,7 +3598,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="0">
-        <v>238</v>
+        <v>260.5</v>
       </c>
       <c r="K41" s="0">
         <v>85</v>
@@ -3764,7 +3764,7 @@
         <v>6</v>
       </c>
       <c r="J43" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K43" s="0">
         <v>28</v>
@@ -3847,7 +3847,7 @@
         <v>7</v>
       </c>
       <c r="J44" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K44" s="0">
         <v>31</v>
@@ -3930,7 +3930,7 @@
         <v>7</v>
       </c>
       <c r="J45" s="0">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K45" s="0">
         <v>23</v>
@@ -4013,7 +4013,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="K46" s="0">
         <v>15</v>
@@ -4179,7 +4179,7 @@
         <v>7</v>
       </c>
       <c r="J48" s="0">
-        <v>275</v>
+        <v>276.19999999999999</v>
       </c>
       <c r="K48" s="0">
         <v>17</v>
@@ -4262,7 +4262,7 @@
         <v>13</v>
       </c>
       <c r="J49" s="0">
-        <v>275</v>
+        <v>277.39999999999998</v>
       </c>
       <c r="K49" s="0">
         <v>17</v>
@@ -4345,7 +4345,7 @@
         <v>2</v>
       </c>
       <c r="J50" s="0">
-        <v>275</v>
+        <v>278.60000000000002</v>
       </c>
       <c r="K50" s="0">
         <v>24</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="0">
-        <v>275</v>
+        <v>279.80000000000001</v>
       </c>
       <c r="K51" s="0">
         <v>21</v>
@@ -4643,7 +4643,7 @@
         <v>50</v>
       </c>
       <c r="AA53" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
@@ -4675,7 +4675,7 @@
         <v>8</v>
       </c>
       <c r="J54" s="0">
-        <v>416</v>
+        <v>418.83333333333331</v>
       </c>
       <c r="K54" s="0">
         <v>16</v>
@@ -4726,7 +4726,7 @@
         <v>50</v>
       </c>
       <c r="AA54" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55">
@@ -4758,7 +4758,7 @@
         <v>9</v>
       </c>
       <c r="J55" s="0">
-        <v>416</v>
+        <v>424.5</v>
       </c>
       <c r="K55" s="0">
         <v>13</v>
@@ -4809,7 +4809,7 @@
         <v>50</v>
       </c>
       <c r="AA55" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56">
@@ -4841,7 +4841,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="0">
-        <v>416</v>
+        <v>427.33333333333331</v>
       </c>
       <c r="K56" s="0">
         <v>13</v>
@@ -4892,7 +4892,7 @@
         <v>50</v>
       </c>
       <c r="AA56" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57">
@@ -4924,7 +4924,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="0">
-        <v>416</v>
+        <v>430.16666666666669</v>
       </c>
       <c r="K57" s="0">
         <v>12</v>
@@ -4975,7 +4975,7 @@
         <v>50</v>
       </c>
       <c r="AA57" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58">
@@ -5058,7 +5058,7 @@
         <v>50</v>
       </c>
       <c r="AA58" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59">
@@ -5090,7 +5090,7 @@
         <v>18</v>
       </c>
       <c r="J59" s="0">
-        <v>433</v>
+        <v>433.39999999999998</v>
       </c>
       <c r="K59" s="0">
         <v>11</v>
@@ -5141,7 +5141,7 @@
         <v>50</v>
       </c>
       <c r="AA59" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60">
@@ -5173,7 +5173,7 @@
         <v>8</v>
       </c>
       <c r="J60" s="0">
-        <v>433</v>
+        <v>433.80000000000001</v>
       </c>
       <c r="K60" s="0">
         <v>11</v>
@@ -5224,7 +5224,7 @@
         <v>50</v>
       </c>
       <c r="AA60" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61">
@@ -5256,7 +5256,7 @@
         <v>5</v>
       </c>
       <c r="J61" s="0">
-        <v>433</v>
+        <v>434.19999999999999</v>
       </c>
       <c r="K61" s="0">
         <v>21</v>
@@ -5307,7 +5307,7 @@
         <v>50</v>
       </c>
       <c r="AA61" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62">
@@ -5339,7 +5339,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="0">
-        <v>433</v>
+        <v>434.60000000000002</v>
       </c>
       <c r="K62" s="0">
         <v>26</v>
@@ -5390,7 +5390,7 @@
         <v>50</v>
       </c>
       <c r="AA62" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63">
@@ -5473,7 +5473,7 @@
         <v>50</v>
       </c>
       <c r="AA63" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64">
@@ -5505,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="0">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K64" s="0">
         <v>20</v>
@@ -5556,7 +5556,7 @@
         <v>50</v>
       </c>
       <c r="AA64" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65">
@@ -5588,7 +5588,7 @@
         <v>9</v>
       </c>
       <c r="J65" s="0">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="K65" s="0">
         <v>24</v>
@@ -5639,7 +5639,7 @@
         <v>50</v>
       </c>
       <c r="AA65" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66">
@@ -5671,7 +5671,7 @@
         <v>9</v>
       </c>
       <c r="J66" s="0">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="K66" s="0">
         <v>28</v>
@@ -5722,7 +5722,7 @@
         <v>50</v>
       </c>
       <c r="AA66" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67">
@@ -5754,7 +5754,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="0">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="K67" s="0">
         <v>21</v>
@@ -5805,7 +5805,7 @@
         <v>50</v>
       </c>
       <c r="AA67" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68">
@@ -5888,7 +5888,7 @@
         <v>50</v>
       </c>
       <c r="AA68" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69">
@@ -6001,7 +6001,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="0">
-        <v>422</v>
+        <v>425.5</v>
       </c>
       <c r="K70" s="0">
         <v>18</v>
@@ -6084,7 +6084,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="0">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="K71" s="0">
         <v>7</v>
@@ -6167,7 +6167,7 @@
         <v>5</v>
       </c>
       <c r="J72" s="0">
-        <v>422</v>
+        <v>432.5</v>
       </c>
       <c r="K72" s="0">
         <v>13</v>
@@ -6250,7 +6250,7 @@
         <v>4</v>
       </c>
       <c r="J73" s="0">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="K73" s="0">
         <v>10</v>
@@ -6333,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="0">
-        <v>422</v>
+        <v>439.5</v>
       </c>
       <c r="K74" s="0">
         <v>5</v>
@@ -6499,7 +6499,7 @@
         <v>4</v>
       </c>
       <c r="J76" s="0">
-        <v>443</v>
+        <v>446.39999999999998</v>
       </c>
       <c r="K76" s="0">
         <v>6</v>
@@ -6582,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="0">
-        <v>443</v>
+        <v>449.80000000000001</v>
       </c>
       <c r="K77" s="0">
         <v>8</v>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="0">
-        <v>443</v>
+        <v>453.19999999999999</v>
       </c>
       <c r="K78" s="0">
         <v>3</v>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="0">
-        <v>443</v>
+        <v>456.60000000000002</v>
       </c>
       <c r="K79" s="0">
         <v>5</v>
@@ -6914,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K81" s="0">
         <v>2</v>
@@ -6997,7 +6997,7 @@
         <v>3</v>
       </c>
       <c r="J82" s="0">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K82" s="0">
         <v>4</v>
@@ -7080,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="0">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="K83" s="0">
         <v>3</v>
@@ -7163,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="0">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K84" s="0">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>8</v>
       </c>
       <c r="J87" s="0">
-        <v>430</v>
+        <v>430.83333333333331</v>
       </c>
       <c r="K87" s="0">
         <v>23</v>
@@ -7493,7 +7493,7 @@
         <v>5</v>
       </c>
       <c r="J88" s="0">
-        <v>430</v>
+        <v>431.66666666666669</v>
       </c>
       <c r="K88" s="0">
         <v>19</v>
@@ -7576,7 +7576,7 @@
         <v>9</v>
       </c>
       <c r="J89" s="0">
-        <v>430</v>
+        <v>432.5</v>
       </c>
       <c r="K89" s="0">
         <v>39</v>
@@ -7659,7 +7659,7 @@
         <v>10</v>
       </c>
       <c r="J90" s="0">
-        <v>430</v>
+        <v>433.33333333333331</v>
       </c>
       <c r="K90" s="0">
         <v>24</v>
@@ -7742,7 +7742,7 @@
         <v>6</v>
       </c>
       <c r="J91" s="0">
-        <v>430</v>
+        <v>434.16666666666669</v>
       </c>
       <c r="K91" s="0">
         <v>20</v>
@@ -7908,7 +7908,7 @@
         <v>10</v>
       </c>
       <c r="J93" s="0">
-        <v>435</v>
+        <v>440.19999999999999</v>
       </c>
       <c r="K93" s="0">
         <v>12</v>
@@ -7991,7 +7991,7 @@
         <v>10</v>
       </c>
       <c r="J94" s="0">
-        <v>435</v>
+        <v>445.39999999999998</v>
       </c>
       <c r="K94" s="0">
         <v>18</v>
@@ -8074,7 +8074,7 @@
         <v>10</v>
       </c>
       <c r="J95" s="0">
-        <v>435</v>
+        <v>450.60000000000002</v>
       </c>
       <c r="K95" s="0">
         <v>20</v>
@@ -8157,7 +8157,7 @@
         <v>4</v>
       </c>
       <c r="J96" s="0">
-        <v>435</v>
+        <v>455.80000000000001</v>
       </c>
       <c r="K96" s="0">
         <v>14</v>
@@ -8323,7 +8323,7 @@
         <v>5</v>
       </c>
       <c r="J98" s="0">
-        <v>461</v>
+        <v>463.60000000000002</v>
       </c>
       <c r="K98" s="0">
         <v>21</v>
@@ -8406,7 +8406,7 @@
         <v>12</v>
       </c>
       <c r="J99" s="0">
-        <v>461</v>
+        <v>466.19999999999999</v>
       </c>
       <c r="K99" s="0">
         <v>21</v>
@@ -8489,7 +8489,7 @@
         <v>7</v>
       </c>
       <c r="J100" s="0">
-        <v>461</v>
+        <v>468.80000000000001</v>
       </c>
       <c r="K100" s="0">
         <v>23</v>
@@ -8572,7 +8572,7 @@
         <v>4</v>
       </c>
       <c r="J101" s="0">
-        <v>461</v>
+        <v>471.39999999999998</v>
       </c>
       <c r="K101" s="0">
         <v>28</v>
@@ -8736,7 +8736,7 @@
         <v>7</v>
       </c>
       <c r="J103" s="0">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="K103" s="0">
         <v>0</v>
@@ -8765,7 +8765,9 @@
       <c r="S103" s="0">
         <v>0</v>
       </c>
-      <c r="T103" s="0"/>
+      <c r="T103" s="0">
+        <v>0</v>
+      </c>
       <c r="U103" s="0">
         <v>0</v>
       </c>
@@ -8817,7 +8819,7 @@
         <v>4</v>
       </c>
       <c r="J104" s="0">
-        <v>0</v>
+        <v>444.16666666666669</v>
       </c>
       <c r="K104" s="0">
         <v>15</v>
@@ -8847,7 +8849,7 @@
         <v>0.019310000000000001</v>
       </c>
       <c r="T104" s="0">
-        <v>65535</v>
+        <v>18.432272727272728</v>
       </c>
       <c r="U104" s="0">
         <v>24.330600000000004</v>
@@ -8900,7 +8902,7 @@
         <v>2</v>
       </c>
       <c r="J105" s="0">
-        <v>440</v>
+        <v>448.33333333333331</v>
       </c>
       <c r="K105" s="0">
         <v>8</v>
@@ -8983,7 +8985,7 @@
         <v>29</v>
       </c>
       <c r="J106" s="0">
-        <v>0</v>
+        <v>452.5</v>
       </c>
       <c r="K106" s="0">
         <v>10</v>
@@ -9013,7 +9015,7 @@
         <v>0.019310000000000001</v>
       </c>
       <c r="T106" s="0">
-        <v>65535</v>
+        <v>264.19590909090914</v>
       </c>
       <c r="U106" s="0">
         <v>117.59790000000001</v>
@@ -9066,7 +9068,7 @@
         <v>13</v>
       </c>
       <c r="J107" s="0">
-        <v>440</v>
+        <v>456.66666666666669</v>
       </c>
       <c r="K107" s="0">
         <v>6</v>
@@ -9149,7 +9151,7 @@
         <v>7</v>
       </c>
       <c r="J108" s="0">
-        <v>440</v>
+        <v>460.83333333333331</v>
       </c>
       <c r="K108" s="0">
         <v>11</v>
@@ -9232,7 +9234,7 @@
         <v>13</v>
       </c>
       <c r="J109" s="0">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="K109" s="0">
         <v>10</v>
@@ -9262,7 +9264,7 @@
         <v>0.019310000000000001</v>
       </c>
       <c r="T109" s="0">
-        <v>65535</v>
+        <v>124.99591397849463</v>
       </c>
       <c r="U109" s="0">
         <v>59.474800000000002</v>
@@ -9315,7 +9317,7 @@
         <v>8</v>
       </c>
       <c r="J110" s="0">
-        <v>465</v>
+        <v>466.39999999999998</v>
       </c>
       <c r="K110" s="0">
         <v>6</v>
@@ -9398,7 +9400,7 @@
         <v>12</v>
       </c>
       <c r="J111" s="0">
-        <v>465</v>
+        <v>467.80000000000001</v>
       </c>
       <c r="K111" s="0">
         <v>8</v>
@@ -9481,7 +9483,7 @@
         <v>4</v>
       </c>
       <c r="J112" s="0">
-        <v>465</v>
+        <v>469.19999999999999</v>
       </c>
       <c r="K112" s="0">
         <v>12</v>
@@ -9564,7 +9566,7 @@
         <v>2</v>
       </c>
       <c r="J113" s="0">
-        <v>465</v>
+        <v>470.60000000000002</v>
       </c>
       <c r="K113" s="0">
         <v>7</v>
@@ -9647,7 +9649,7 @@
         <v>6</v>
       </c>
       <c r="J114" s="0">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="K114" s="0">
         <v>19</v>
@@ -9677,7 +9679,7 @@
         <v>0.019310000000000001</v>
       </c>
       <c r="T114" s="0">
-        <v>61.04451612903226</v>
+        <v>60.139194915254251</v>
       </c>
       <c r="U114" s="0">
         <v>28.385700000000003</v>
@@ -9730,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="0">
-        <v>0</v>
+        <v>473.19999999999999</v>
       </c>
       <c r="K115" s="0">
         <v>15</v>
@@ -9760,7 +9762,7 @@
         <v>0.019310000000000001</v>
       </c>
       <c r="T115" s="0">
-        <v>65535</v>
+        <v>51.547881355932212</v>
       </c>
       <c r="U115" s="0">
         <v>24.330600000000004</v>
@@ -9813,7 +9815,7 @@
         <v>3</v>
       </c>
       <c r="J116" s="0">
-        <v>472</v>
+        <v>474.39999999999998</v>
       </c>
       <c r="K116" s="0">
         <v>17</v>
@@ -9896,7 +9898,7 @@
         <v>3</v>
       </c>
       <c r="J117" s="0">
-        <v>472</v>
+        <v>475.60000000000002</v>
       </c>
       <c r="K117" s="0">
         <v>17</v>
@@ -9979,7 +9981,7 @@
         <v>3</v>
       </c>
       <c r="J118" s="0">
-        <v>472</v>
+        <v>476.80000000000001</v>
       </c>
       <c r="K118" s="0">
         <v>24</v>
@@ -10226,7 +10228,7 @@
         <v>9</v>
       </c>
       <c r="J121" s="0">
-        <v>282</v>
+        <v>283.33333333333331</v>
       </c>
       <c r="K121" s="0">
         <v>17</v>
@@ -10309,7 +10311,7 @@
         <v>3</v>
       </c>
       <c r="J122" s="0">
-        <v>282</v>
+        <v>284.66666666666669</v>
       </c>
       <c r="K122" s="0">
         <v>14</v>
@@ -10390,7 +10392,7 @@
         <v>120</v>
       </c>
       <c r="J123" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K123" s="0">
         <v>9</v>
@@ -10473,7 +10475,7 @@
         <v>34</v>
       </c>
       <c r="J124" s="0">
-        <v>282</v>
+        <v>287.33333333333331</v>
       </c>
       <c r="K124" s="0">
         <v>13</v>
@@ -10639,7 +10641,7 @@
         <v>23</v>
       </c>
       <c r="J126" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K126" s="0">
         <v>5</v>
@@ -10722,7 +10724,7 @@
         <v>28</v>
       </c>
       <c r="J127" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K127" s="0">
         <v>7</v>
@@ -10805,7 +10807,7 @@
         <v>2</v>
       </c>
       <c r="J128" s="0">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K128" s="0">
         <v>7</v>
@@ -10888,7 +10890,7 @@
         <v>4</v>
       </c>
       <c r="J129" s="0">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="K129" s="0">
         <v>6</v>
@@ -11054,7 +11056,7 @@
         <v>7</v>
       </c>
       <c r="J131" s="0">
-        <v>300</v>
+        <v>302.19999999999999</v>
       </c>
       <c r="K131" s="0">
         <v>5</v>
@@ -11137,7 +11139,7 @@
         <v>12</v>
       </c>
       <c r="J132" s="0">
-        <v>300</v>
+        <v>304.39999999999998</v>
       </c>
       <c r="K132" s="0">
         <v>8</v>
@@ -11220,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="J133" s="0">
-        <v>300</v>
+        <v>306.60000000000002</v>
       </c>
       <c r="K133" s="0">
         <v>5</v>
@@ -11303,7 +11305,7 @@
         <v>16</v>
       </c>
       <c r="J134" s="0">
-        <v>300</v>
+        <v>308.80000000000001</v>
       </c>
       <c r="K134" s="0">
         <v>8</v>
@@ -11518,7 +11520,7 @@
         <v>51</v>
       </c>
       <c r="AA136" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137">
@@ -11548,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="0">
-        <v>229</v>
+        <v>233.33333333333334</v>
       </c>
       <c r="K137" s="0">
         <v>14</v>
@@ -11599,7 +11601,7 @@
         <v>51</v>
       </c>
       <c r="AA137" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138">
@@ -11631,7 +11633,7 @@
         <v>20</v>
       </c>
       <c r="J138" s="0">
-        <v>229</v>
+        <v>237.66666666666666</v>
       </c>
       <c r="K138" s="0">
         <v>12</v>
@@ -11682,7 +11684,7 @@
         <v>51</v>
       </c>
       <c r="AA138" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139">
@@ -11714,7 +11716,7 @@
         <v>3</v>
       </c>
       <c r="J139" s="0">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="K139" s="0">
         <v>8</v>
@@ -11765,7 +11767,7 @@
         <v>51</v>
       </c>
       <c r="AA139" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140">
@@ -11797,7 +11799,7 @@
         <v>2</v>
       </c>
       <c r="J140" s="0">
-        <v>229</v>
+        <v>246.33333333333334</v>
       </c>
       <c r="K140" s="0">
         <v>7</v>
@@ -11848,7 +11850,7 @@
         <v>51</v>
       </c>
       <c r="AA140" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141">
@@ -11931,7 +11933,7 @@
         <v>51</v>
       </c>
       <c r="AA141" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142">
@@ -11963,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="0">
-        <v>255</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="K142" s="0">
         <v>6</v>
@@ -12014,7 +12016,7 @@
         <v>51</v>
       </c>
       <c r="AA142" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143">
@@ -12046,7 +12048,7 @@
         <v>1</v>
       </c>
       <c r="J143" s="0">
-        <v>255</v>
+        <v>257.80000000000001</v>
       </c>
       <c r="K143" s="0">
         <v>6</v>
@@ -12097,7 +12099,7 @@
         <v>51</v>
       </c>
       <c r="AA143" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144">
@@ -12129,7 +12131,7 @@
         <v>11</v>
       </c>
       <c r="J144" s="0">
-        <v>255</v>
+        <v>259.19999999999999</v>
       </c>
       <c r="K144" s="0">
         <v>7</v>
@@ -12180,7 +12182,7 @@
         <v>51</v>
       </c>
       <c r="AA144" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145">
@@ -12212,7 +12214,7 @@
         <v>1</v>
       </c>
       <c r="J145" s="0">
-        <v>255</v>
+        <v>260.60000000000002</v>
       </c>
       <c r="K145" s="0">
         <v>2</v>
@@ -12263,7 +12265,7 @@
         <v>51</v>
       </c>
       <c r="AA145" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146">
@@ -12346,7 +12348,7 @@
         <v>51</v>
       </c>
       <c r="AA146" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147">
@@ -12378,7 +12380,7 @@
         <v>5</v>
       </c>
       <c r="J147" s="0">
-        <v>262</v>
+        <v>263.60000000000002</v>
       </c>
       <c r="K147" s="0">
         <v>8</v>
@@ -12429,7 +12431,7 @@
         <v>51</v>
       </c>
       <c r="AA147" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148">
@@ -12461,7 +12463,7 @@
         <v>5</v>
       </c>
       <c r="J148" s="0">
-        <v>262</v>
+        <v>265.19999999999999</v>
       </c>
       <c r="K148" s="0">
         <v>8</v>
@@ -12512,7 +12514,7 @@
         <v>51</v>
       </c>
       <c r="AA148" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149">
@@ -12544,7 +12546,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="0">
-        <v>262</v>
+        <v>266.80000000000001</v>
       </c>
       <c r="K149" s="0">
         <v>5</v>
@@ -12595,7 +12597,7 @@
         <v>51</v>
       </c>
       <c r="AA149" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150">
@@ -12627,7 +12629,7 @@
         <v>2</v>
       </c>
       <c r="J150" s="0">
-        <v>262</v>
+        <v>268.39999999999998</v>
       </c>
       <c r="K150" s="0">
         <v>9</v>
@@ -12678,7 +12680,7 @@
         <v>51</v>
       </c>
       <c r="AA150" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151">
@@ -12761,7 +12763,7 @@
         <v>51</v>
       </c>
       <c r="AA151" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152">
@@ -12874,7 +12876,7 @@
         <v>13</v>
       </c>
       <c r="J153" s="0">
-        <v>290</v>
+        <v>291.33333333333331</v>
       </c>
       <c r="K153" s="0">
         <v>26</v>
@@ -12957,7 +12959,7 @@
         <v>17</v>
       </c>
       <c r="J154" s="0">
-        <v>290</v>
+        <v>292.66666666666669</v>
       </c>
       <c r="K154" s="0">
         <v>29</v>
@@ -13040,7 +13042,7 @@
         <v>20</v>
       </c>
       <c r="J155" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K155" s="0">
         <v>26</v>
@@ -13123,7 +13125,7 @@
         <v>3</v>
       </c>
       <c r="J156" s="0">
-        <v>290</v>
+        <v>295.33333333333331</v>
       </c>
       <c r="K156" s="0">
         <v>27</v>
@@ -13289,7 +13291,7 @@
         <v>11</v>
       </c>
       <c r="J158" s="0">
-        <v>298</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="K158" s="0">
         <v>18</v>
@@ -13372,7 +13374,7 @@
         <v>4</v>
       </c>
       <c r="J159" s="0">
-        <v>298</v>
+        <v>297.19999999999999</v>
       </c>
       <c r="K159" s="0">
         <v>18</v>
@@ -13455,7 +13457,7 @@
         <v>2</v>
       </c>
       <c r="J160" s="0">
-        <v>298</v>
+        <v>296.80000000000001</v>
       </c>
       <c r="K160" s="0">
         <v>5</v>
@@ -13538,7 +13540,7 @@
         <v>5</v>
       </c>
       <c r="J161" s="0">
-        <v>298</v>
+        <v>296.39999999999998</v>
       </c>
       <c r="K161" s="0">
         <v>12</v>
@@ -13704,7 +13706,7 @@
         <v>3</v>
       </c>
       <c r="J163" s="0">
-        <v>296</v>
+        <v>297.19999999999999</v>
       </c>
       <c r="K163" s="0">
         <v>13</v>
@@ -13787,7 +13789,7 @@
         <v>2</v>
       </c>
       <c r="J164" s="0">
-        <v>296</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="K164" s="0">
         <v>22</v>
@@ -13870,7 +13872,7 @@
         <v>10</v>
       </c>
       <c r="J165" s="0">
-        <v>296</v>
+        <v>299.60000000000002</v>
       </c>
       <c r="K165" s="0">
         <v>14</v>
@@ -13953,7 +13955,7 @@
         <v>5</v>
       </c>
       <c r="J166" s="0">
-        <v>296</v>
+        <v>300.80000000000001</v>
       </c>
       <c r="K166" s="0">
         <v>16</v>
@@ -14200,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="0">
-        <v>249</v>
+        <v>248.16666666666666</v>
       </c>
       <c r="K169" s="0">
         <v>16</v>
@@ -14283,7 +14285,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="0">
-        <v>249</v>
+        <v>247.33333333333334</v>
       </c>
       <c r="K170" s="0">
         <v>11</v>
@@ -14366,7 +14368,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="0">
-        <v>249</v>
+        <v>246.5</v>
       </c>
       <c r="K171" s="0">
         <v>18</v>
@@ -14449,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="0">
-        <v>249</v>
+        <v>245.66666666666666</v>
       </c>
       <c r="K172" s="0">
         <v>13</v>
@@ -14615,7 +14617,7 @@
         <v>1</v>
       </c>
       <c r="J174" s="0">
-        <v>244</v>
+        <v>244.19999999999999</v>
       </c>
       <c r="K174" s="0">
         <v>4</v>
@@ -14698,7 +14700,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="0">
-        <v>244</v>
+        <v>244.40000000000001</v>
       </c>
       <c r="K175" s="0">
         <v>9</v>
@@ -14781,7 +14783,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="0">
-        <v>244</v>
+        <v>244.59999999999999</v>
       </c>
       <c r="K176" s="0">
         <v>9</v>
@@ -14864,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="0">
-        <v>244</v>
+        <v>244.80000000000001</v>
       </c>
       <c r="K177" s="0">
         <v>9</v>
@@ -15030,7 +15032,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="0">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K179" s="0">
         <v>9</v>
@@ -15113,7 +15115,7 @@
         <v>23</v>
       </c>
       <c r="J180" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K180" s="0">
         <v>13</v>
@@ -15196,7 +15198,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="0">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K181" s="0">
         <v>3</v>
@@ -15279,7 +15281,7 @@
         <v>7</v>
       </c>
       <c r="J182" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K182" s="0">
         <v>8</v>
@@ -15526,7 +15528,7 @@
         <v>2</v>
       </c>
       <c r="J185" s="0">
-        <v>361</v>
+        <v>363.33333333333331</v>
       </c>
       <c r="K185" s="0">
         <v>32</v>
@@ -15609,7 +15611,7 @@
         <v>15</v>
       </c>
       <c r="J186" s="0">
-        <v>361</v>
+        <v>365.66666666666669</v>
       </c>
       <c r="K186" s="0">
         <v>16</v>
@@ -15692,7 +15694,7 @@
         <v>76</v>
       </c>
       <c r="J187" s="0">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K187" s="0">
         <v>20</v>
@@ -15775,7 +15777,7 @@
         <v>23</v>
       </c>
       <c r="J188" s="0">
-        <v>361</v>
+        <v>370.33333333333331</v>
       </c>
       <c r="K188" s="0">
         <v>15</v>
@@ -15941,7 +15943,7 @@
         <v>10</v>
       </c>
       <c r="J190" s="0">
-        <v>375</v>
+        <v>376.19999999999999</v>
       </c>
       <c r="K190" s="0">
         <v>17</v>
@@ -16024,7 +16026,7 @@
         <v>2</v>
       </c>
       <c r="J191" s="0">
-        <v>375</v>
+        <v>377.39999999999998</v>
       </c>
       <c r="K191" s="0">
         <v>12</v>
@@ -16107,7 +16109,7 @@
         <v>3</v>
       </c>
       <c r="J192" s="0">
-        <v>375</v>
+        <v>378.60000000000002</v>
       </c>
       <c r="K192" s="0">
         <v>12</v>
@@ -16190,7 +16192,7 @@
         <v>6</v>
       </c>
       <c r="J193" s="0">
-        <v>375</v>
+        <v>379.80000000000001</v>
       </c>
       <c r="K193" s="0">
         <v>12</v>
@@ -16356,7 +16358,7 @@
         <v>9</v>
       </c>
       <c r="J195" s="0">
-        <v>381</v>
+        <v>383.80000000000001</v>
       </c>
       <c r="K195" s="0">
         <v>22</v>
@@ -16439,7 +16441,7 @@
         <v>20</v>
       </c>
       <c r="J196" s="0">
-        <v>381</v>
+        <v>386.60000000000002</v>
       </c>
       <c r="K196" s="0">
         <v>28</v>
@@ -16522,7 +16524,7 @@
         <v>3</v>
       </c>
       <c r="J197" s="0">
-        <v>381</v>
+        <v>389.39999999999998</v>
       </c>
       <c r="K197" s="0">
         <v>9</v>
@@ -16605,7 +16607,7 @@
         <v>8</v>
       </c>
       <c r="J198" s="0">
-        <v>381</v>
+        <v>392.19999999999999</v>
       </c>
       <c r="K198" s="0">
         <v>9</v>
@@ -16852,7 +16854,7 @@
         <v>2</v>
       </c>
       <c r="J201" s="0">
-        <v>425</v>
+        <v>429.5</v>
       </c>
       <c r="K201" s="0">
         <v>12</v>
@@ -16935,7 +16937,7 @@
         <v>5</v>
       </c>
       <c r="J202" s="0">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="K202" s="0">
         <v>9</v>
@@ -17018,7 +17020,7 @@
         <v>4</v>
       </c>
       <c r="J203" s="0">
-        <v>425</v>
+        <v>438.5</v>
       </c>
       <c r="K203" s="0">
         <v>12</v>
@@ -17101,7 +17103,7 @@
         <v>4</v>
       </c>
       <c r="J204" s="0">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="K204" s="0">
         <v>15</v>
@@ -17267,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="J206" s="0">
-        <v>452</v>
+        <v>456.39999999999998</v>
       </c>
       <c r="K206" s="0">
         <v>13</v>
@@ -17350,7 +17352,7 @@
         <v>6</v>
       </c>
       <c r="J207" s="0">
-        <v>452</v>
+        <v>460.80000000000001</v>
       </c>
       <c r="K207" s="0">
         <v>9</v>
@@ -17433,7 +17435,7 @@
         <v>30</v>
       </c>
       <c r="J208" s="0">
-        <v>452</v>
+        <v>465.19999999999999</v>
       </c>
       <c r="K208" s="0">
         <v>9</v>
@@ -17516,7 +17518,7 @@
         <v>2</v>
       </c>
       <c r="J209" s="0">
-        <v>452</v>
+        <v>469.60000000000002</v>
       </c>
       <c r="K209" s="0">
         <v>9</v>
@@ -17682,7 +17684,7 @@
         <v>4</v>
       </c>
       <c r="J211" s="0">
-        <v>474</v>
+        <v>483.19999999999999</v>
       </c>
       <c r="K211" s="0">
         <v>14</v>
@@ -17765,7 +17767,7 @@
         <v>2</v>
       </c>
       <c r="J212" s="0">
-        <v>474</v>
+        <v>492.39999999999998</v>
       </c>
       <c r="K212" s="0">
         <v>35</v>
@@ -17848,7 +17850,7 @@
         <v>3</v>
       </c>
       <c r="J213" s="0">
-        <v>474</v>
+        <v>501.60000000000002</v>
       </c>
       <c r="K213" s="0">
         <v>38</v>
@@ -17931,7 +17933,7 @@
         <v>5</v>
       </c>
       <c r="J214" s="0">
-        <v>474</v>
+        <v>510.80000000000001</v>
       </c>
       <c r="K214" s="0">
         <v>37</v>
@@ -18178,7 +18180,7 @@
         <v>1</v>
       </c>
       <c r="J217" s="0">
-        <v>392</v>
+        <v>394.83333333333331</v>
       </c>
       <c r="K217" s="0">
         <v>18</v>
@@ -18261,7 +18263,7 @@
         <v>5</v>
       </c>
       <c r="J218" s="0">
-        <v>392</v>
+        <v>397.66666666666669</v>
       </c>
       <c r="K218" s="0">
         <v>11</v>
@@ -18344,7 +18346,7 @@
         <v>18</v>
       </c>
       <c r="J219" s="0">
-        <v>392</v>
+        <v>400.5</v>
       </c>
       <c r="K219" s="0">
         <v>18</v>
@@ -18427,7 +18429,7 @@
         <v>17</v>
       </c>
       <c r="J220" s="0">
-        <v>392</v>
+        <v>403.33333333333331</v>
       </c>
       <c r="K220" s="0">
         <v>16</v>
@@ -18593,7 +18595,7 @@
         <v>12</v>
       </c>
       <c r="J222" s="0">
-        <v>409</v>
+        <v>411.19999999999999</v>
       </c>
       <c r="K222" s="0">
         <v>13</v>
@@ -18676,7 +18678,7 @@
         <v>15</v>
       </c>
       <c r="J223" s="0">
-        <v>409</v>
+        <v>413.39999999999998</v>
       </c>
       <c r="K223" s="0">
         <v>9</v>
@@ -18759,7 +18761,7 @@
         <v>5</v>
       </c>
       <c r="J224" s="0">
-        <v>409</v>
+        <v>415.60000000000002</v>
       </c>
       <c r="K224" s="0">
         <v>7</v>
@@ -18842,7 +18844,7 @@
         <v>8</v>
       </c>
       <c r="J225" s="0">
-        <v>409</v>
+        <v>417.80000000000001</v>
       </c>
       <c r="K225" s="0">
         <v>11</v>
@@ -19008,7 +19010,7 @@
         <v>5</v>
       </c>
       <c r="J227" s="0">
-        <v>420</v>
+        <v>422.39999999999998</v>
       </c>
       <c r="K227" s="0">
         <v>9</v>
@@ -19091,7 +19093,7 @@
         <v>2</v>
       </c>
       <c r="J228" s="0">
-        <v>420</v>
+        <v>424.80000000000001</v>
       </c>
       <c r="K228" s="0">
         <v>7</v>
@@ -19174,7 +19176,7 @@
         <v>7</v>
       </c>
       <c r="J229" s="0">
-        <v>420</v>
+        <v>427.19999999999999</v>
       </c>
       <c r="K229" s="0">
         <v>8</v>
@@ -19257,7 +19259,7 @@
         <v>5</v>
       </c>
       <c r="J230" s="0">
-        <v>420</v>
+        <v>429.60000000000002</v>
       </c>
       <c r="K230" s="0">
         <v>6</v>
@@ -19472,7 +19474,7 @@
         <v>51</v>
       </c>
       <c r="AA232" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="233">
@@ -19504,7 +19506,7 @@
         <v>13</v>
       </c>
       <c r="J233" s="0">
-        <v>440</v>
+        <v>444.16666666666669</v>
       </c>
       <c r="K233" s="0">
         <v>17</v>
@@ -19555,7 +19557,7 @@
         <v>51</v>
       </c>
       <c r="AA233" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="234">
@@ -19587,7 +19589,7 @@
         <v>7</v>
       </c>
       <c r="J234" s="0">
-        <v>440</v>
+        <v>448.33333333333331</v>
       </c>
       <c r="K234" s="0">
         <v>6</v>
@@ -19638,7 +19640,7 @@
         <v>51</v>
       </c>
       <c r="AA234" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="235">
@@ -19670,7 +19672,7 @@
         <v>10</v>
       </c>
       <c r="J235" s="0">
-        <v>440</v>
+        <v>452.5</v>
       </c>
       <c r="K235" s="0">
         <v>3</v>
@@ -19721,7 +19723,7 @@
         <v>51</v>
       </c>
       <c r="AA235" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="236">
@@ -19753,7 +19755,7 @@
         <v>2</v>
       </c>
       <c r="J236" s="0">
-        <v>440</v>
+        <v>456.66666666666669</v>
       </c>
       <c r="K236" s="0">
         <v>3</v>
@@ -19804,7 +19806,7 @@
         <v>51</v>
       </c>
       <c r="AA236" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="237">
@@ -19887,7 +19889,7 @@
         <v>51</v>
       </c>
       <c r="AA237" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="238">
@@ -19919,7 +19921,7 @@
         <v>3</v>
       </c>
       <c r="J238" s="0">
-        <v>465</v>
+        <v>466.39999999999998</v>
       </c>
       <c r="K238" s="0">
         <v>3</v>
@@ -19970,7 +19972,7 @@
         <v>51</v>
       </c>
       <c r="AA238" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="239">
@@ -20002,7 +20004,7 @@
         <v>11</v>
       </c>
       <c r="J239" s="0">
-        <v>465</v>
+        <v>467.80000000000001</v>
       </c>
       <c r="K239" s="0">
         <v>11</v>
@@ -20053,7 +20055,7 @@
         <v>51</v>
       </c>
       <c r="AA239" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="240">
@@ -20085,7 +20087,7 @@
         <v>3</v>
       </c>
       <c r="J240" s="0">
-        <v>465</v>
+        <v>469.19999999999999</v>
       </c>
       <c r="K240" s="0">
         <v>6</v>
@@ -20136,7 +20138,7 @@
         <v>51</v>
       </c>
       <c r="AA240" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="241">
@@ -20168,7 +20170,7 @@
         <v>0</v>
       </c>
       <c r="J241" s="0">
-        <v>465</v>
+        <v>470.60000000000002</v>
       </c>
       <c r="K241" s="0">
         <v>3</v>
@@ -20219,7 +20221,7 @@
         <v>51</v>
       </c>
       <c r="AA241" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="242">
@@ -20302,7 +20304,7 @@
         <v>51</v>
       </c>
       <c r="AA242" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="243">
@@ -20334,7 +20336,7 @@
         <v>3</v>
       </c>
       <c r="J243" s="0">
-        <v>472</v>
+        <v>473.60000000000002</v>
       </c>
       <c r="K243" s="0">
         <v>5</v>
@@ -20385,7 +20387,7 @@
         <v>51</v>
       </c>
       <c r="AA243" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="244">
@@ -20417,7 +20419,7 @@
         <v>4</v>
       </c>
       <c r="J244" s="0">
-        <v>472</v>
+        <v>475.19999999999999</v>
       </c>
       <c r="K244" s="0">
         <v>7</v>
@@ -20468,7 +20470,7 @@
         <v>51</v>
       </c>
       <c r="AA244" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="245">
@@ -20500,7 +20502,7 @@
         <v>4</v>
       </c>
       <c r="J245" s="0">
-        <v>472</v>
+        <v>476.80000000000001</v>
       </c>
       <c r="K245" s="0">
         <v>5</v>
@@ -20551,7 +20553,7 @@
         <v>51</v>
       </c>
       <c r="AA245" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="246">
@@ -20583,7 +20585,7 @@
         <v>7</v>
       </c>
       <c r="J246" s="0">
-        <v>472</v>
+        <v>478.39999999999998</v>
       </c>
       <c r="K246" s="0">
         <v>5</v>
@@ -20634,7 +20636,7 @@
         <v>51</v>
       </c>
       <c r="AA246" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="247">
@@ -20717,7 +20719,7 @@
         <v>51</v>
       </c>
       <c r="AA247" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_ER_inputData.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_ER_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27778" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="30366" uniqueCount="55">
   <si>
     <t>TagNumber</t>
   </si>

--- a/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_ER_inputData.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions/Behavior Tables/run_all_exp_ER_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="30366" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="35542" uniqueCount="55">
   <si>
     <t>TagNumber</t>
   </si>
@@ -525,7 +525,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="0">
-        <v>180.7842857142858</v>
+        <v>48.290000000000134</v>
       </c>
       <c r="H4" s="0">
         <v>24</v>
@@ -691,7 +691,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="0">
-        <v>320.68800000000016</v>
+        <v>119.26125000000019</v>
       </c>
       <c r="H6" s="0">
         <v>43</v>
@@ -774,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="0">
-        <v>612.10799999999972</v>
+        <v>9.5049999999998818</v>
       </c>
       <c r="H7" s="0">
         <v>14</v>
@@ -857,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="0">
-        <v>291.33333333333343</v>
+        <v>89.980000000000189</v>
       </c>
       <c r="H8" s="0">
         <v>17</v>
@@ -940,7 +940,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="0">
-        <v>158.10818181818183</v>
+        <v>87.441111111111113</v>
       </c>
       <c r="H9" s="0">
         <v>27</v>
@@ -1189,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="0">
-        <v>800.31600000000003</v>
+        <v>71.589999999999975</v>
       </c>
       <c r="H12" s="0">
         <v>8</v>
@@ -1272,7 +1272,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="0">
-        <v>165.69200000000009</v>
+        <v>88.665000000000077</v>
       </c>
       <c r="H13" s="0">
         <v>14</v>
@@ -1355,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="0">
-        <v>272.5675</v>
+        <v>21.299999999999972</v>
       </c>
       <c r="H14" s="0">
         <v>19</v>
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="0">
-        <v>315.58499999999992</v>
+        <v>24.78000000000003</v>
       </c>
       <c r="H17" s="0">
         <v>24</v>
@@ -1853,7 +1853,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="0">
-        <v>357.12750000000011</v>
+        <v>140.91666666666677</v>
       </c>
       <c r="H20" s="0">
         <v>17</v>
@@ -2019,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="0">
-        <v>211.17999999999986</v>
+        <v>32.449999999999875</v>
       </c>
       <c r="H22" s="0">
         <v>8</v>
@@ -2185,7 +2185,7 @@
         <v>21</v>
       </c>
       <c r="G24" s="0">
-        <v>216.23500000000001</v>
+        <v>26.410000000000043</v>
       </c>
       <c r="H24" s="0">
         <v>11</v>
@@ -2268,7 +2268,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="0">
-        <v>205.41199999999998</v>
+        <v>75.172500000000028</v>
       </c>
       <c r="H25" s="0">
         <v>12</v>
@@ -2349,7 +2349,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="0">
-        <v>743.17000000000007</v>
+        <v>17.490000000000009</v>
       </c>
       <c r="H26" s="0">
         <v>14</v>
@@ -2679,7 +2679,7 @@
         <v>73</v>
       </c>
       <c r="G30" s="0">
-        <v>91.398421052631576</v>
+        <v>29.080588235294069</v>
       </c>
       <c r="H30" s="0">
         <v>42</v>
@@ -2762,7 +2762,7 @@
         <v>44</v>
       </c>
       <c r="G31" s="0">
-        <v>171.078</v>
+        <v>41.552499999999938</v>
       </c>
       <c r="H31" s="0">
         <v>38</v>
@@ -2845,7 +2845,7 @@
         <v>55</v>
       </c>
       <c r="G32" s="0">
-        <v>315.25999999999999</v>
+        <v>116.09142857142862</v>
       </c>
       <c r="H32" s="0">
         <v>12</v>
@@ -2928,7 +2928,7 @@
         <v>41</v>
       </c>
       <c r="G33" s="0">
-        <v>277.83428571428578</v>
+        <v>47.93166666666675</v>
       </c>
       <c r="H33" s="0">
         <v>16</v>
@@ -3011,7 +3011,7 @@
         <v>59</v>
       </c>
       <c r="G34" s="0">
-        <v>130.20866666666674</v>
+        <v>56.400833333333388</v>
       </c>
       <c r="H34" s="0">
         <v>35</v>
@@ -3343,7 +3343,7 @@
         <v>66</v>
       </c>
       <c r="G38" s="0">
-        <v>129.83666666666676</v>
+        <v>32.815384615384659</v>
       </c>
       <c r="H38" s="0">
         <v>47</v>
@@ -3426,7 +3426,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="0">
-        <v>788.46100000000001</v>
+        <v>70.275714285714315</v>
       </c>
       <c r="H39" s="0">
         <v>32</v>
@@ -3509,7 +3509,7 @@
         <v>37</v>
       </c>
       <c r="G40" s="0">
-        <v>619.9711111111111</v>
+        <v>100.77333333333348</v>
       </c>
       <c r="H40" s="0">
         <v>29</v>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="0">
-        <v>146.7972727272726</v>
+        <v>24.233333333333359</v>
       </c>
       <c r="H41" s="0">
         <v>25</v>
@@ -3675,7 +3675,7 @@
         <v>61</v>
       </c>
       <c r="G42" s="0">
-        <v>181.3012499999999</v>
+        <v>52.018333333333203</v>
       </c>
       <c r="H42" s="0">
         <v>12</v>
@@ -3924,7 +3924,7 @@
         <v>21</v>
       </c>
       <c r="G45" s="0">
-        <v>532.39399999999989</v>
+        <v>66.352499999999935</v>
       </c>
       <c r="H45" s="0">
         <v>12</v>
@@ -4007,7 +4007,7 @@
         <v>24</v>
       </c>
       <c r="G46" s="0">
-        <v>238.08000000000021</v>
+        <v>21.125000000000114</v>
       </c>
       <c r="H46" s="0">
         <v>8</v>
@@ -4172,9 +4172,7 @@
       <c r="F48" s="0">
         <v>15</v>
       </c>
-      <c r="G48" s="0">
-        <v>626.52999999999975</v>
-      </c>
+      <c r="G48" s="0"/>
       <c r="H48" s="0">
         <v>1</v>
       </c>
@@ -4256,7 +4254,7 @@
         <v>24</v>
       </c>
       <c r="G49" s="0">
-        <v>141.76124999999985</v>
+        <v>105.27714285714274</v>
       </c>
       <c r="H49" s="0">
         <v>14</v>
@@ -4339,7 +4337,7 @@
         <v>47</v>
       </c>
       <c r="G50" s="0">
-        <v>282.52142857142854</v>
+        <v>126.27666666666664</v>
       </c>
       <c r="H50" s="0">
         <v>26</v>
@@ -5165,7 +5163,7 @@
         <v>57</v>
       </c>
       <c r="G60" s="0">
-        <v>91.716129032258166</v>
+        <v>12.522068965517363</v>
       </c>
       <c r="H60" s="0">
         <v>56</v>
@@ -5248,7 +5246,7 @@
         <v>89</v>
       </c>
       <c r="G61" s="0">
-        <v>48.31130434782618</v>
+        <v>33.236818181818286</v>
       </c>
       <c r="H61" s="0">
         <v>53</v>
@@ -5331,7 +5329,7 @@
         <v>38</v>
       </c>
       <c r="G62" s="0">
-        <v>58.698666666666604</v>
+        <v>30.797857142857083</v>
       </c>
       <c r="H62" s="0">
         <v>42</v>
@@ -5829,7 +5827,7 @@
         <v>56</v>
       </c>
       <c r="G68" s="0">
-        <v>135.67555555555555</v>
+        <v>28.321428571428573</v>
       </c>
       <c r="H68" s="0">
         <v>16</v>
@@ -5995,7 +5993,7 @@
         <v>31</v>
       </c>
       <c r="G70" s="0">
-        <v>173.37000000000035</v>
+        <v>103.7500000000003</v>
       </c>
       <c r="H70" s="0">
         <v>23</v>
@@ -6077,9 +6075,7 @@
       <c r="F71" s="0">
         <v>10</v>
       </c>
-      <c r="G71" s="0">
-        <v>595.93000000000006</v>
-      </c>
+      <c r="G71" s="0"/>
       <c r="H71" s="0">
         <v>2</v>
       </c>
@@ -6161,7 +6157,7 @@
         <v>29</v>
       </c>
       <c r="G72" s="0">
-        <v>218.46333333333345</v>
+        <v>20.874000000000002</v>
       </c>
       <c r="H72" s="0">
         <v>24</v>
@@ -6244,7 +6240,7 @@
         <v>13</v>
       </c>
       <c r="G73" s="0">
-        <v>497.27499999999986</v>
+        <v>11.082499999999939</v>
       </c>
       <c r="H73" s="0">
         <v>8</v>
@@ -6489,7 +6485,7 @@
         <v>17</v>
       </c>
       <c r="G76" s="0">
-        <v>133.76999999999998</v>
+        <v>2.0044444444444403</v>
       </c>
       <c r="H76" s="0">
         <v>24</v>
@@ -6819,7 +6815,7 @@
         <v>59</v>
       </c>
       <c r="G80" s="0">
-        <v>93.349090909090947</v>
+        <v>39.030000000000044</v>
       </c>
       <c r="H80" s="0">
         <v>20</v>
@@ -6902,7 +6898,7 @@
         <v>69</v>
       </c>
       <c r="G81" s="0">
-        <v>106.16400000000003</v>
+        <v>31.428888888888853</v>
       </c>
       <c r="H81" s="0">
         <v>11</v>
@@ -7898,7 +7894,7 @@
         <v>36</v>
       </c>
       <c r="G93" s="0">
-        <v>185.83714285714288</v>
+        <v>60.621666666666648</v>
       </c>
       <c r="H93" s="0">
         <v>10</v>
@@ -7981,7 +7977,7 @@
         <v>40</v>
       </c>
       <c r="G94" s="0">
-        <v>99.625999999999678</v>
+        <v>54.88357142857118</v>
       </c>
       <c r="H94" s="0">
         <v>23</v>
@@ -8064,7 +8060,7 @@
         <v>12</v>
       </c>
       <c r="G95" s="0">
-        <v>1235.8333333333335</v>
+        <v>22.762500000000003</v>
       </c>
       <c r="H95" s="0">
         <v>12</v>
@@ -8147,7 +8143,7 @@
         <v>8</v>
       </c>
       <c r="G96" s="0">
-        <v>951.32166666666637</v>
+        <v>77.18666666666654</v>
       </c>
       <c r="H96" s="0">
         <v>15</v>
@@ -8313,7 +8309,7 @@
         <v>30</v>
       </c>
       <c r="G98" s="0">
-        <v>81.166249999999934</v>
+        <v>6.8471428571428357</v>
       </c>
       <c r="H98" s="0">
         <v>13</v>
@@ -8396,7 +8392,7 @@
         <v>10</v>
       </c>
       <c r="G99" s="0">
-        <v>1421.636666666667</v>
+        <v>85.465000000000316</v>
       </c>
       <c r="H99" s="0">
         <v>3</v>
@@ -8807,7 +8803,7 @@
         <v>39</v>
       </c>
       <c r="G104" s="0">
-        <v>152.69181818181818</v>
+        <v>32.709000000000024</v>
       </c>
       <c r="H104" s="0">
         <v>31</v>
@@ -8890,7 +8886,7 @@
         <v>31</v>
       </c>
       <c r="G105" s="0">
-        <v>278.38000000000005</v>
+        <v>88.498750000000015</v>
       </c>
       <c r="H105" s="0">
         <v>17</v>
@@ -8973,7 +8969,7 @@
         <v>8</v>
       </c>
       <c r="G106" s="0">
-        <v>1157.22</v>
+        <v>49.329999999999984</v>
       </c>
       <c r="H106" s="0">
         <v>5</v>
@@ -9056,7 +9052,7 @@
         <v>22</v>
       </c>
       <c r="G107" s="0">
-        <v>303.31333333333328</v>
+        <v>83.10249999999985</v>
       </c>
       <c r="H107" s="0">
         <v>12</v>
@@ -9139,7 +9135,7 @@
         <v>10</v>
       </c>
       <c r="G108" s="0">
-        <v>232.60833333333321</v>
+        <v>75.697499999999835</v>
       </c>
       <c r="H108" s="0">
         <v>14</v>
@@ -9222,7 +9218,7 @@
         <v>15</v>
       </c>
       <c r="G109" s="0">
-        <v>187.94500000000005</v>
+        <v>93.757142857142881</v>
       </c>
       <c r="H109" s="0">
         <v>19</v>
@@ -9305,7 +9301,7 @@
         <v>4</v>
       </c>
       <c r="G110" s="0">
-        <v>452.96000000000004</v>
+        <v>162.69000000000005</v>
       </c>
       <c r="H110" s="0">
         <v>11</v>
@@ -9388,7 +9384,7 @@
         <v>16</v>
       </c>
       <c r="G111" s="0">
-        <v>231.18600000000009</v>
+        <v>13.415000000000191</v>
       </c>
       <c r="H111" s="0">
         <v>10</v>
@@ -9554,7 +9550,7 @@
         <v>10</v>
       </c>
       <c r="G113" s="0">
-        <v>619.14999999999986</v>
+        <v>37.099999999999909</v>
       </c>
       <c r="H113" s="0">
         <v>3</v>
@@ -9637,7 +9633,7 @@
         <v>11</v>
       </c>
       <c r="G114" s="0">
-        <v>1977.3425000000002</v>
+        <v>27.450000000000092</v>
       </c>
       <c r="H114" s="0">
         <v>11</v>
@@ -9886,7 +9882,7 @@
         <v>11</v>
       </c>
       <c r="G117" s="0">
-        <v>561.95399999999995</v>
+        <v>11.549999999999962</v>
       </c>
       <c r="H117" s="0">
         <v>7</v>
@@ -10214,7 +10210,7 @@
         <v>4</v>
       </c>
       <c r="G121" s="0">
-        <v>2521.3100000000004</v>
+        <v>13.07000000000005</v>
       </c>
       <c r="H121" s="0">
         <v>2</v>
@@ -10297,7 +10293,7 @@
         <v>12</v>
       </c>
       <c r="G122" s="0">
-        <v>374.01800000000009</v>
+        <v>2.9300000000000019</v>
       </c>
       <c r="H122" s="0">
         <v>14</v>
@@ -10463,7 +10459,7 @@
         <v>9</v>
       </c>
       <c r="G124" s="0">
-        <v>415.39999999999992</v>
+        <v>26.170000000000002</v>
       </c>
       <c r="H124" s="0">
         <v>3</v>
@@ -10872,7 +10868,7 @@
         <v>135</v>
       </c>
       <c r="G129" s="0">
-        <v>24.823421052631556</v>
+        <v>11.854594594594568</v>
       </c>
       <c r="H129" s="0">
         <v>50</v>
@@ -11204,7 +11200,7 @@
         <v>40</v>
       </c>
       <c r="G133" s="0">
-        <v>37.129999999999903</v>
+        <v>1.9690909090908391</v>
       </c>
       <c r="H133" s="0">
         <v>15</v>
@@ -11702,7 +11698,7 @@
         <v>65</v>
       </c>
       <c r="G139" s="0">
-        <v>31.198571428571547</v>
+        <v>9.9785000000001141</v>
       </c>
       <c r="H139" s="0">
         <v>37</v>
@@ -11785,7 +11781,7 @@
         <v>59</v>
       </c>
       <c r="G140" s="0">
-        <v>28.572173913043581</v>
+        <v>7.7795454545455529</v>
       </c>
       <c r="H140" s="0">
         <v>33</v>
@@ -11951,7 +11947,7 @@
         <v>48</v>
       </c>
       <c r="G142" s="0">
-        <v>89.981481481481566</v>
+        <v>9.0907692307692773</v>
       </c>
       <c r="H142" s="0">
         <v>44</v>
@@ -12034,7 +12030,7 @@
         <v>39</v>
       </c>
       <c r="G143" s="0">
-        <v>76.910624999999868</v>
+        <v>42.274666666666533</v>
       </c>
       <c r="H143" s="0">
         <v>36</v>
@@ -12117,7 +12113,7 @@
         <v>27</v>
       </c>
       <c r="G144" s="0">
-        <v>260.46888888888901</v>
+        <v>57.041666666666778</v>
       </c>
       <c r="H144" s="0">
         <v>24</v>
@@ -12283,7 +12279,7 @@
         <v>70</v>
       </c>
       <c r="G146" s="0">
-        <v>122.10999999999993</v>
+        <v>54.789285714285697</v>
       </c>
       <c r="H146" s="0">
         <v>30</v>
@@ -12366,7 +12362,7 @@
         <v>59</v>
       </c>
       <c r="G147" s="0">
-        <v>131.99549999999999</v>
+        <v>61.850555555555538</v>
       </c>
       <c r="H147" s="0">
         <v>35</v>
@@ -12449,7 +12445,7 @@
         <v>48</v>
       </c>
       <c r="G148" s="0">
-        <v>153.6426666666666</v>
+        <v>83.292307692307631</v>
       </c>
       <c r="H148" s="0">
         <v>36</v>
@@ -12532,7 +12528,7 @@
         <v>22</v>
       </c>
       <c r="G149" s="0">
-        <v>127.13555555555558</v>
+        <v>41.373750000000086</v>
       </c>
       <c r="H149" s="0">
         <v>19</v>
@@ -12777,7 +12773,7 @@
         <v>71</v>
       </c>
       <c r="G152" s="0">
-        <v>379.01499999999987</v>
+        <v>60.443999999999889</v>
       </c>
       <c r="H152" s="0">
         <v>8</v>
@@ -13275,7 +13271,7 @@
         <v>41</v>
       </c>
       <c r="G158" s="0">
-        <v>173.55166666666682</v>
+        <v>49.284000000000091</v>
       </c>
       <c r="H158" s="0">
         <v>39</v>
@@ -13358,7 +13354,7 @@
         <v>37</v>
       </c>
       <c r="G159" s="0">
-        <v>214.86250000000004</v>
+        <v>89.930000000000035</v>
       </c>
       <c r="H159" s="0">
         <v>39</v>
@@ -13441,7 +13437,7 @@
         <v>86</v>
       </c>
       <c r="G160" s="0">
-        <v>59.028333333333279</v>
+        <v>21.639090909090896</v>
       </c>
       <c r="H160" s="0">
         <v>16</v>
@@ -13524,7 +13520,7 @@
         <v>27</v>
       </c>
       <c r="G161" s="0">
-        <v>200.47857142857151</v>
+        <v>22.395000000000007</v>
       </c>
       <c r="H161" s="0">
         <v>23</v>
@@ -13773,7 +13769,7 @@
         <v>56</v>
       </c>
       <c r="G164" s="0">
-        <v>76.30352941176487</v>
+        <v>53.54750000000017</v>
       </c>
       <c r="H164" s="0">
         <v>30</v>
@@ -13939,7 +13935,7 @@
         <v>49</v>
       </c>
       <c r="G166" s="0">
-        <v>61.298333333333318</v>
+        <v>19.295217391304337</v>
       </c>
       <c r="H166" s="0">
         <v>36</v>
@@ -14022,7 +14018,7 @@
         <v>59</v>
       </c>
       <c r="G167" s="0">
-        <v>216.95499999999993</v>
+        <v>17.316521739130401</v>
       </c>
       <c r="H167" s="0">
         <v>50</v>
@@ -14188,7 +14184,7 @@
         <v>12</v>
       </c>
       <c r="G169" s="0">
-        <v>189.01750000000001</v>
+        <v>58.805000000000007</v>
       </c>
       <c r="H169" s="0">
         <v>21</v>
@@ -14271,7 +14267,7 @@
         <v>10</v>
       </c>
       <c r="G170" s="0">
-        <v>362.02000000000015</v>
+        <v>12.274999999999949</v>
       </c>
       <c r="H170" s="0">
         <v>25</v>
@@ -14437,7 +14433,7 @@
         <v>11</v>
       </c>
       <c r="G172" s="0">
-        <v>625.18666666666672</v>
+        <v>16.595999999999979</v>
       </c>
       <c r="H172" s="0">
         <v>20</v>
@@ -15178,7 +15174,7 @@
         <v>9</v>
       </c>
       <c r="G181" s="0">
-        <v>705.90000000000032</v>
+        <v>29.440000000000509</v>
       </c>
       <c r="H181" s="0">
         <v>8</v>
@@ -15344,7 +15340,7 @@
         <v>19</v>
       </c>
       <c r="G183" s="0">
-        <v>242.6857142857144</v>
+        <v>43.708000000000141</v>
       </c>
       <c r="H183" s="0">
         <v>65</v>
@@ -15427,7 +15423,7 @@
         <v>23</v>
       </c>
       <c r="G184" s="0">
-        <v>179.71285714285708</v>
+        <v>15.806666666666594</v>
       </c>
       <c r="H184" s="0">
         <v>16</v>
@@ -15593,7 +15589,7 @@
         <v>22</v>
       </c>
       <c r="G186" s="0">
-        <v>180.45999999999989</v>
+        <v>52.104285714285602</v>
       </c>
       <c r="H186" s="0">
         <v>20</v>
@@ -15842,7 +15838,7 @@
         <v>14</v>
       </c>
       <c r="G189" s="0">
-        <v>384.916</v>
+        <v>11.862500000000018</v>
       </c>
       <c r="H189" s="0">
         <v>15</v>
@@ -16008,7 +16004,7 @@
         <v>32</v>
       </c>
       <c r="G191" s="0">
-        <v>188.87214285714299</v>
+        <v>39.065833333333423</v>
       </c>
       <c r="H191" s="0">
         <v>38</v>
@@ -16091,7 +16087,7 @@
         <v>17</v>
       </c>
       <c r="G192" s="0">
-        <v>431.46199999999999</v>
+        <v>32.740000000000023</v>
       </c>
       <c r="H192" s="0">
         <v>20</v>
@@ -16174,7 +16170,7 @@
         <v>27</v>
       </c>
       <c r="G193" s="0">
-        <v>651.21142857142854</v>
+        <v>19.434999999999999</v>
       </c>
       <c r="H193" s="0">
         <v>19</v>
@@ -16257,7 +16253,7 @@
         <v>25</v>
       </c>
       <c r="G194" s="0">
-        <v>419.18714285714287</v>
+        <v>95.139999999999873</v>
       </c>
       <c r="H194" s="0">
         <v>13</v>
@@ -16423,7 +16419,7 @@
         <v>28</v>
       </c>
       <c r="G196" s="0">
-        <v>306.01833333333315</v>
+        <v>116.87749999999986</v>
       </c>
       <c r="H196" s="0">
         <v>19</v>
@@ -16506,7 +16502,7 @@
         <v>57</v>
       </c>
       <c r="G197" s="0">
-        <v>142.8666666666665</v>
+        <v>95.159999999999769</v>
       </c>
       <c r="H197" s="0">
         <v>19</v>
@@ -16589,7 +16585,7 @@
         <v>15</v>
       </c>
       <c r="G198" s="0">
-        <v>949.76249999999993</v>
+        <v>173.09000000000015</v>
       </c>
       <c r="H198" s="0">
         <v>7</v>
@@ -16998,7 +16994,7 @@
         <v>12</v>
       </c>
       <c r="G203" s="0">
-        <v>356.05428571428558</v>
+        <v>77.36800000000008</v>
       </c>
       <c r="H203" s="0">
         <v>19</v>
@@ -17164,7 +17160,7 @@
         <v>38</v>
       </c>
       <c r="G205" s="0">
-        <v>236.97000000000008</v>
+        <v>99.258571428571528</v>
       </c>
       <c r="H205" s="0">
         <v>41</v>
@@ -17247,7 +17243,7 @@
         <v>19</v>
       </c>
       <c r="G206" s="0">
-        <v>192.14833333333331</v>
+        <v>96.767999999999986</v>
       </c>
       <c r="H206" s="0">
         <v>12</v>
@@ -17413,7 +17409,7 @@
         <v>17</v>
       </c>
       <c r="G208" s="0">
-        <v>619.35285714285703</v>
+        <v>159.38999999999982</v>
       </c>
       <c r="H208" s="0">
         <v>20</v>
@@ -17496,7 +17492,7 @@
         <v>6</v>
       </c>
       <c r="G209" s="0">
-        <v>399.37999999999994</v>
+        <v>25.079999999999927</v>
       </c>
       <c r="H209" s="0">
         <v>8</v>
@@ -17579,7 +17575,7 @@
         <v>10</v>
       </c>
       <c r="G210" s="0">
-        <v>409.42374999999981</v>
+        <v>83.438571428571279</v>
       </c>
       <c r="H210" s="0">
         <v>52</v>
@@ -17662,7 +17658,7 @@
         <v>12</v>
       </c>
       <c r="G211" s="0">
-        <v>505.30000000000007</v>
+        <v>21.716666666666708</v>
       </c>
       <c r="H211" s="0">
         <v>42</v>
@@ -17745,7 +17741,7 @@
         <v>38</v>
       </c>
       <c r="G212" s="0">
-        <v>147.78374999999997</v>
+        <v>61.612857142857116</v>
       </c>
       <c r="H212" s="0">
         <v>29</v>
@@ -17828,7 +17824,7 @@
         <v>15</v>
       </c>
       <c r="G213" s="0">
-        <v>272.17000000000002</v>
+        <v>21.339999999999964</v>
       </c>
       <c r="H213" s="0">
         <v>19</v>
@@ -17911,7 +17907,7 @@
         <v>13</v>
       </c>
       <c r="G214" s="0">
-        <v>134.62000000000009</v>
+        <v>20.930000000000053</v>
       </c>
       <c r="H214" s="0">
         <v>52</v>
@@ -17994,7 +17990,7 @@
         <v>33</v>
       </c>
       <c r="G215" s="0">
-        <v>264.13799999999998</v>
+        <v>53.706249999999947</v>
       </c>
       <c r="H215" s="0">
         <v>31</v>
@@ -18077,7 +18073,7 @@
         <v>18</v>
       </c>
       <c r="G216" s="0">
-        <v>242.77714285714265</v>
+        <v>65.223999999999791</v>
       </c>
       <c r="H216" s="0">
         <v>20</v>
@@ -18160,7 +18156,7 @@
         <v>15</v>
       </c>
       <c r="G217" s="0">
-        <v>831.70249999999987</v>
+        <v>117.97666666666669</v>
       </c>
       <c r="H217" s="0">
         <v>11</v>
@@ -18243,7 +18239,7 @@
         <v>14</v>
       </c>
       <c r="G218" s="0">
-        <v>962.60600000000011</v>
+        <v>2.7650000000000388</v>
       </c>
       <c r="H218" s="0">
         <v>9</v>
@@ -18409,7 +18405,7 @@
         <v>15</v>
       </c>
       <c r="G220" s="0">
-        <v>989.18833333333316</v>
+        <v>26.786666666666672</v>
       </c>
       <c r="H220" s="0">
         <v>11</v>
@@ -18575,7 +18571,7 @@
         <v>25</v>
       </c>
       <c r="G222" s="0">
-        <v>245.64250000000004</v>
+        <v>97.490000000000038</v>
       </c>
       <c r="H222" s="0">
         <v>9</v>
@@ -18656,7 +18652,7 @@
         <v>9</v>
       </c>
       <c r="G223" s="0">
-        <v>115.05857142857144</v>
+        <v>51.203333333333312</v>
       </c>
       <c r="H223" s="0">
         <v>17</v>
@@ -19235,7 +19231,7 @@
         <v>45</v>
       </c>
       <c r="G230" s="0">
-        <v>209.30111111111114</v>
+        <v>31.089999999999996</v>
       </c>
       <c r="H230" s="0">
         <v>57</v>
@@ -19401,7 +19397,7 @@
         <v>29</v>
       </c>
       <c r="G232" s="0">
-        <v>212.66800000000003</v>
+        <v>80.332499999999996</v>
       </c>
       <c r="H232" s="0">
         <v>12</v>
@@ -19567,7 +19563,7 @@
         <v>30</v>
       </c>
       <c r="G234" s="0">
-        <v>149.51615384615391</v>
+        <v>35.828181818181911</v>
       </c>
       <c r="H234" s="0">
         <v>37</v>
@@ -19899,7 +19895,7 @@
         <v>31</v>
       </c>
       <c r="G238" s="0">
-        <v>112.07500000000002</v>
+        <v>9.0080000000000009</v>
       </c>
       <c r="H238" s="0">
         <v>33</v>
@@ -20065,7 +20061,7 @@
         <v>45</v>
       </c>
       <c r="G240" s="0">
-        <v>97.885000000000304</v>
+        <v>27.022222222222599</v>
       </c>
       <c r="H240" s="0">
         <v>35</v>
@@ -20148,7 +20144,7 @@
         <v>53</v>
       </c>
       <c r="G241" s="0">
-        <v>210.73600000000005</v>
+        <v>114.67416666666668</v>
       </c>
       <c r="H241" s="0">
         <v>47</v>
@@ -20231,7 +20227,7 @@
         <v>48</v>
       </c>
       <c r="G242" s="0">
-        <v>163.30599999999987</v>
+        <v>66.726363636363487</v>
       </c>
       <c r="H242" s="0">
         <v>33</v>
@@ -20314,7 +20310,7 @@
         <v>27</v>
       </c>
       <c r="G243" s="0">
-        <v>227.77250000000004</v>
+        <v>62.645000000000003</v>
       </c>
       <c r="H243" s="0">
         <v>8</v>
@@ -20563,7 +20559,7 @@
         <v>52</v>
       </c>
       <c r="G246" s="0">
-        <v>139.30999999999983</v>
+        <v>79.681999999999874</v>
       </c>
       <c r="H246" s="0">
         <v>40</v>
@@ -20808,7 +20804,7 @@
         <v>36</v>
       </c>
       <c r="G249" s="0">
-        <v>271.63615384615366</v>
+        <v>168.39499999999992</v>
       </c>
       <c r="H249" s="0">
         <v>52</v>
@@ -21057,7 +21053,7 @@
         <v>18</v>
       </c>
       <c r="G252" s="0">
-        <v>204.48307692307694</v>
+        <v>21.522727272727241</v>
       </c>
       <c r="H252" s="0">
         <v>144</v>
@@ -21306,7 +21302,7 @@
         <v>27</v>
       </c>
       <c r="G255" s="0">
-        <v>167.14444444444442</v>
+        <v>93.246249999999961</v>
       </c>
       <c r="H255" s="0">
         <v>30</v>
@@ -21389,7 +21385,7 @@
         <v>43</v>
       </c>
       <c r="G256" s="0">
-        <v>127.10000000000004</v>
+        <v>72.263750000000044</v>
       </c>
       <c r="H256" s="0">
         <v>13</v>
@@ -21472,7 +21468,7 @@
         <v>46</v>
       </c>
       <c r="G257" s="0">
-        <v>118.26857142857135</v>
+        <v>69.061666666666568</v>
       </c>
       <c r="H257" s="0">
         <v>8</v>
@@ -21555,7 +21551,7 @@
         <v>45</v>
       </c>
       <c r="G258" s="0">
-        <v>188.73772727272726</v>
+        <v>67.631428571428557</v>
       </c>
       <c r="H258" s="0">
         <v>64</v>
@@ -21638,7 +21634,7 @@
         <v>32</v>
       </c>
       <c r="G259" s="0">
-        <v>134.16444444444443</v>
+        <v>92.555000000000092</v>
       </c>
       <c r="H259" s="0">
         <v>14</v>
@@ -21721,7 +21717,7 @@
         <v>25</v>
       </c>
       <c r="G260" s="0">
-        <v>145.37538461538463</v>
+        <v>82.691818181818149</v>
       </c>
       <c r="H260" s="0">
         <v>55</v>
@@ -21804,7 +21800,7 @@
         <v>6</v>
       </c>
       <c r="G261" s="0">
-        <v>706.90333333333331</v>
+        <v>283</v>
       </c>
       <c r="H261" s="0">
         <v>7</v>
@@ -21887,7 +21883,7 @@
         <v>14</v>
       </c>
       <c r="G262" s="0">
-        <v>624.65499999999997</v>
+        <v>66.668333333333138</v>
       </c>
       <c r="H262" s="0">
         <v>16</v>
@@ -21970,7 +21966,7 @@
         <v>47</v>
       </c>
       <c r="G263" s="0">
-        <v>133.95266666666672</v>
+        <v>104.05571428571436</v>
       </c>
       <c r="H263" s="0">
         <v>35</v>
@@ -22136,7 +22132,7 @@
         <v>18</v>
       </c>
       <c r="G265" s="0">
-        <v>402.36666666666605</v>
+        <v>19.959999999999781</v>
       </c>
       <c r="H265" s="0">
         <v>4</v>
@@ -22219,7 +22215,7 @@
         <v>25</v>
       </c>
       <c r="G266" s="0">
-        <v>326.71636363636355</v>
+        <v>15.711999999999893</v>
       </c>
       <c r="H266" s="0">
         <v>16</v>
@@ -22302,7 +22298,7 @@
         <v>35</v>
       </c>
       <c r="G267" s="0">
-        <v>198.21400000000011</v>
+        <v>131.73500000000016</v>
       </c>
       <c r="H267" s="0">
         <v>21</v>
@@ -22385,7 +22381,7 @@
         <v>62</v>
       </c>
       <c r="G268" s="0">
-        <v>115.74080000000005</v>
+        <v>61.15739130434784</v>
       </c>
       <c r="H268" s="0">
         <v>68</v>
@@ -22468,7 +22464,7 @@
         <v>48</v>
       </c>
       <c r="G269" s="0">
-        <v>159.84666666666655</v>
+        <v>97.834999999999837</v>
       </c>
       <c r="H269" s="0">
         <v>24</v>
@@ -22879,7 +22875,7 @@
         <v>49</v>
       </c>
       <c r="G274" s="0">
-        <v>47.108181818181855</v>
+        <v>15.156999999999963</v>
       </c>
       <c r="H274" s="0">
         <v>51</v>
@@ -22962,7 +22958,7 @@
         <v>64</v>
       </c>
       <c r="G275" s="0">
-        <v>161.23750000000004</v>
+        <v>33.757222222222282</v>
       </c>
       <c r="H275" s="0">
         <v>78</v>
@@ -23045,7 +23041,7 @@
         <v>29</v>
       </c>
       <c r="G276" s="0">
-        <v>258.5044444444444</v>
+        <v>100.10857142857139</v>
       </c>
       <c r="H276" s="0">
         <v>41</v>
@@ -23128,7 +23124,7 @@
         <v>34</v>
       </c>
       <c r="G277" s="0">
-        <v>44.310833333333356</v>
+        <v>15.190909090909026</v>
       </c>
       <c r="H277" s="0">
         <v>17</v>
@@ -23211,7 +23207,7 @@
         <v>34</v>
       </c>
       <c r="G278" s="0">
-        <v>169.95411764705867</v>
+        <v>44.862666666666534</v>
       </c>
       <c r="H278" s="0">
         <v>26</v>
@@ -23294,7 +23290,7 @@
         <v>25</v>
       </c>
       <c r="G279" s="0">
-        <v>281.50416666666666</v>
+        <v>20.686000000000014</v>
       </c>
       <c r="H279" s="0">
         <v>26</v>
@@ -23377,7 +23373,7 @@
         <v>34</v>
       </c>
       <c r="G280" s="0">
-        <v>185.81583333333347</v>
+        <v>33.600909090909205</v>
       </c>
       <c r="H280" s="0">
         <v>18</v>
@@ -23700,7 +23696,7 @@
         <v>89</v>
       </c>
       <c r="G284" s="0">
-        <v>39.806071428571464</v>
+        <v>12.119230769230818</v>
       </c>
       <c r="H284" s="0">
         <v>39</v>
@@ -23860,7 +23856,7 @@
         <v>24</v>
       </c>
       <c r="G286" s="0">
-        <v>124.11444444444464</v>
+        <v>13.042500000000157</v>
       </c>
       <c r="H286" s="0">
         <v>21</v>
@@ -23940,7 +23936,7 @@
         <v>129</v>
       </c>
       <c r="G287" s="0">
-        <v>65.310312500000023</v>
+        <v>24.530000000000037</v>
       </c>
       <c r="H287" s="0">
         <v>102</v>
@@ -24020,7 +24016,7 @@
         <v>112</v>
       </c>
       <c r="G288" s="0">
-        <v>117.66520000000003</v>
+        <v>51.925454545454549</v>
       </c>
       <c r="H288" s="0">
         <v>73</v>
@@ -24100,7 +24096,7 @@
         <v>59</v>
       </c>
       <c r="G289" s="0">
-        <v>168.07791666666657</v>
+        <v>40.526190476190337</v>
       </c>
       <c r="H289" s="0">
         <v>81</v>
@@ -24180,7 +24176,7 @@
         <v>73</v>
       </c>
       <c r="G290" s="0">
-        <v>191.92999999999984</v>
+        <v>68.677499999999711</v>
       </c>
       <c r="H290" s="0">
         <v>36</v>
@@ -24260,7 +24256,7 @@
         <v>60</v>
       </c>
       <c r="G291" s="0">
-        <v>112.50727272727285</v>
+        <v>82.187000000000126</v>
       </c>
       <c r="H291" s="0">
         <v>21</v>
@@ -24578,7 +24574,7 @@
         <v>30</v>
       </c>
       <c r="G295" s="0">
-        <v>49.400000000000034</v>
+        <v>14.973636363636393</v>
       </c>
       <c r="H295" s="0">
         <v>40</v>
@@ -24736,7 +24732,7 @@
         <v>24</v>
       </c>
       <c r="G297" s="0">
-        <v>110.29600000000001</v>
+        <v>28.853749999999977</v>
       </c>
       <c r="H297" s="0">
         <v>37</v>
@@ -24976,7 +24972,7 @@
         <v>43</v>
       </c>
       <c r="G300" s="0">
-        <v>218.84666666666678</v>
+        <v>26.805454545454669</v>
       </c>
       <c r="H300" s="0">
         <v>35</v>
@@ -25056,7 +25052,7 @@
         <v>20</v>
       </c>
       <c r="G301" s="0">
-        <v>257.09777777777782</v>
+        <v>70.802857142857206</v>
       </c>
       <c r="H301" s="0">
         <v>23</v>
@@ -25216,7 +25212,7 @@
         <v>20</v>
       </c>
       <c r="G303" s="0">
-        <v>119.0366666666666</v>
+        <v>18.21571428571426</v>
       </c>
       <c r="H303" s="0">
         <v>33</v>
@@ -25376,7 +25372,7 @@
         <v>23</v>
       </c>
       <c r="G305" s="0">
-        <v>274.51222222222225</v>
+        <v>44.858571428571388</v>
       </c>
       <c r="H305" s="0">
         <v>28</v>
@@ -25536,7 +25532,7 @@
         <v>36</v>
       </c>
       <c r="G307" s="0">
-        <v>76.430714285714245</v>
+        <v>20.723076923076878</v>
       </c>
       <c r="H307" s="0">
         <v>33</v>
@@ -25616,7 +25612,7 @@
         <v>113</v>
       </c>
       <c r="G308" s="0">
-        <v>30.303428571428508</v>
+        <v>14.364117647058711</v>
       </c>
       <c r="H308" s="0">
         <v>40</v>
@@ -25856,7 +25852,7 @@
         <v>72</v>
       </c>
       <c r="G311" s="0">
-        <v>29.078717948717841</v>
+        <v>19.104736842105162</v>
       </c>
       <c r="H311" s="0">
         <v>84</v>
@@ -25936,7 +25932,7 @@
         <v>19</v>
       </c>
       <c r="G312" s="0">
-        <v>206.60133333333332</v>
+        <v>5.9299999999999367</v>
       </c>
       <c r="H312" s="0">
         <v>40</v>
@@ -26016,7 +26012,7 @@
         <v>12</v>
       </c>
       <c r="G313" s="0">
-        <v>251.70777777777761</v>
+        <v>12.015714285714227</v>
       </c>
       <c r="H313" s="0">
         <v>24</v>
@@ -26096,7 +26092,7 @@
         <v>10</v>
       </c>
       <c r="G314" s="0">
-        <v>353.46400000000034</v>
+        <v>9.620000000000628</v>
       </c>
       <c r="H314" s="0">
         <v>17</v>
@@ -26176,7 +26172,7 @@
         <v>18</v>
       </c>
       <c r="G315" s="0">
-        <v>62.267000000000095</v>
+        <v>13.077777777777955</v>
       </c>
       <c r="H315" s="0">
         <v>26</v>
@@ -26256,7 +26252,7 @@
         <v>20</v>
       </c>
       <c r="G316" s="0">
-        <v>249.05214285714277</v>
+        <v>21.73166666666657</v>
       </c>
       <c r="H316" s="0">
         <v>56</v>
@@ -26416,7 +26412,7 @@
         <v>20</v>
       </c>
       <c r="G318" s="0">
-        <v>185.71600000000012</v>
+        <v>5.400000000000083</v>
       </c>
       <c r="H318" s="0">
         <v>22</v>
@@ -26972,7 +26968,7 @@
         <v>23</v>
       </c>
       <c r="G325" s="0">
-        <v>172.57071428571427</v>
+        <v>47.274999999999942</v>
       </c>
       <c r="H325" s="0">
         <v>35</v>
@@ -27052,7 +27048,7 @@
         <v>37</v>
       </c>
       <c r="G326" s="0">
-        <v>177.54230769230756</v>
+        <v>37.54333333333323</v>
       </c>
       <c r="H326" s="0">
         <v>40</v>
@@ -27132,7 +27128,7 @@
         <v>25</v>
       </c>
       <c r="G327" s="0">
-        <v>320.85555555555555</v>
+        <v>30.88142857142855</v>
       </c>
       <c r="H327" s="0">
         <v>20</v>
@@ -27292,7 +27288,7 @@
         <v>33</v>
       </c>
       <c r="G329" s="0">
-        <v>283.84363636363628</v>
+        <v>73.838999999999899</v>
       </c>
       <c r="H329" s="0">
         <v>43</v>
@@ -27372,7 +27368,7 @@
         <v>24</v>
       </c>
       <c r="G330" s="0">
-        <v>171.01600000000025</v>
+        <v>91.81111111111133</v>
       </c>
       <c r="H330" s="0">
         <v>19</v>
@@ -27612,7 +27608,7 @@
         <v>15</v>
       </c>
       <c r="G333" s="0">
-        <v>126.42249999999987</v>
+        <v>84.521428571428487</v>
       </c>
       <c r="H333" s="0">
         <v>42</v>
@@ -27692,7 +27688,7 @@
         <v>34</v>
       </c>
       <c r="G334" s="0">
-        <v>219.27500000000009</v>
+        <v>87.062000000000168</v>
       </c>
       <c r="H334" s="0">
         <v>23</v>
@@ -27772,7 +27768,7 @@
         <v>69</v>
       </c>
       <c r="G335" s="0">
-        <v>385.49750000000029</v>
+        <v>66.390833333333617</v>
       </c>
       <c r="H335" s="0">
         <v>63</v>
@@ -27932,7 +27928,7 @@
         <v>33</v>
       </c>
       <c r="G337" s="0">
-        <v>197.47500000000014</v>
+        <v>37.75500000000023</v>
       </c>
       <c r="H337" s="0">
         <v>23</v>
@@ -28012,7 +28008,7 @@
         <v>53</v>
       </c>
       <c r="G338" s="0">
-        <v>273.21999999999986</v>
+        <v>77.165999999999798</v>
       </c>
       <c r="H338" s="0">
         <v>13</v>
@@ -28332,7 +28328,7 @@
         <v>26</v>
       </c>
       <c r="G342" s="0">
-        <v>1260.1066666666668</v>
+        <v>34.414000000000073</v>
       </c>
       <c r="H342" s="0">
         <v>15</v>
@@ -28566,7 +28562,7 @@
         <v>36</v>
       </c>
       <c r="G345" s="0">
-        <v>292.22769230769222</v>
+        <v>14.993636363636339</v>
       </c>
       <c r="H345" s="0">
         <v>62</v>
@@ -28646,7 +28642,7 @@
         <v>7</v>
       </c>
       <c r="G346" s="0">
-        <v>413.22799999999989</v>
+        <v>24.456666666666411</v>
       </c>
       <c r="H346" s="0">
         <v>22</v>
@@ -28726,7 +28722,7 @@
         <v>9</v>
       </c>
       <c r="G347" s="0">
-        <v>1356.1866666666665</v>
+        <v>46.100000000000364</v>
       </c>
       <c r="H347" s="0">
         <v>29</v>
@@ -28886,7 +28882,7 @@
         <v>14</v>
       </c>
       <c r="G349" s="0">
-        <v>790.26428571428562</v>
+        <v>47.309999999999988</v>
       </c>
       <c r="H349" s="0">
         <v>14</v>
@@ -28966,7 +28962,7 @@
         <v>9</v>
       </c>
       <c r="G350" s="0">
-        <v>2387.3866666666668</v>
+        <v>10.549999999999983</v>
       </c>
       <c r="H350" s="0">
         <v>5</v>
@@ -29126,7 +29122,7 @@
         <v>19</v>
       </c>
       <c r="G352" s="0">
-        <v>642.39833333333297</v>
+        <v>25.854999999999908</v>
       </c>
       <c r="H352" s="0">
         <v>11</v>
@@ -29446,7 +29442,7 @@
         <v>40</v>
       </c>
       <c r="G356" s="0">
-        <v>376.322857142857</v>
+        <v>84.50166666666648</v>
       </c>
       <c r="H356" s="0">
         <v>8</v>
@@ -29526,7 +29522,7 @@
         <v>26</v>
       </c>
       <c r="G357" s="0">
-        <v>318.52199999999971</v>
+        <v>41.726666666666233</v>
       </c>
       <c r="H357" s="0">
         <v>9</v>
@@ -29686,7 +29682,7 @@
         <v>28</v>
       </c>
       <c r="G359" s="0">
-        <v>359.1988888888888</v>
+        <v>19.067499999999907</v>
       </c>
       <c r="H359" s="0">
         <v>16</v>
@@ -29926,7 +29922,7 @@
         <v>16</v>
       </c>
       <c r="G362" s="0">
-        <v>753.65500000000031</v>
+        <v>47.233333333333427</v>
       </c>
       <c r="H362" s="0">
         <v>12</v>
@@ -30246,7 +30242,7 @@
         <v>5</v>
       </c>
       <c r="G366" s="0">
-        <v>1925.1724999999999</v>
+        <v>25.774999999999636</v>
       </c>
       <c r="H366" s="0">
         <v>5</v>
